--- a/js.xlsx
+++ b/js.xlsx
@@ -4626,32 +4626,6 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>push</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> -u origin master</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t>remote</t>
     </r>
     <r>
@@ -6457,61 +6431,6 @@
   </si>
   <si>
     <t xml:space="preserve">Добавление опции --graph в git log вызывает построение дерева коммитов с помощью простых ASCII символов. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>перенести файл</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> на данный адрес, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> -u </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">фиксирует адрес удал репозитория и затем можно просто для слития </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>git push</t>
-    </r>
   </si>
   <si>
     <r>
@@ -6669,6 +6588,108 @@
         <charset val="204"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>перенести файл</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на данный адрес, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> -u </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">фиксирует адрес удал репозитория и затем можно просто для слития </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>git push, origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(имя репозитория)  и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(ветка в репо)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>push -u origin master</t>
     </r>
   </si>
 </sst>
@@ -7735,7 +7756,7 @@
   <dimension ref="B2:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7769,10 +7790,10 @@
     </row>
     <row r="5" spans="2:3" ht="15">
       <c r="B5" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>438</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15">
@@ -7785,10 +7806,10 @@
     </row>
     <row r="7" spans="2:3" ht="15">
       <c r="B7" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>434</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15">
@@ -7804,95 +7825,95 @@
     </row>
     <row r="10" spans="2:3" ht="29.25">
       <c r="B10" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>413</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15">
       <c r="B11" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>415</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15">
       <c r="B12" s="38" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="28.5">
       <c r="B14" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15">
       <c r="B15" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>390</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15">
       <c r="B16" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15">
       <c r="B17" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15">
       <c r="B18" s="38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15">
       <c r="B19" s="38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
       <c r="B20" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15">
       <c r="B21" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>447</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15">
       <c r="B23" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>337</v>
@@ -7903,15 +7924,15 @@
         <v>355</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="29.25">
       <c r="B25" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="44.25">
@@ -7919,15 +7940,15 @@
         <v>356</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15">
       <c r="B28" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="C28" s="38" t="s">
         <v>423</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="28.5">
@@ -7956,15 +7977,15 @@
     </row>
     <row r="33" spans="2:3" ht="29.25">
       <c r="B33" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>381</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30">
       <c r="B34" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>331</v>
@@ -7996,7 +8017,7 @@
     </row>
     <row r="39" spans="2:3" ht="15">
       <c r="B39" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C39" s="38" t="s">
         <v>329</v>
@@ -8012,18 +8033,18 @@
     </row>
     <row r="42" spans="2:3" ht="42.75">
       <c r="B42" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="28.5">
       <c r="B43" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15">
@@ -8039,15 +8060,15 @@
         <v>359</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="15">
       <c r="B47" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" s="38" t="s">
         <v>374</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="15">
@@ -8060,10 +8081,10 @@
     </row>
     <row r="49" spans="2:3" ht="28.5">
       <c r="B49" s="38" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="15">
@@ -8084,10 +8105,10 @@
     </row>
     <row r="53" spans="2:3" ht="15">
       <c r="B53" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="C53" s="38" t="s">
         <v>369</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="15">
@@ -8100,7 +8121,7 @@
     </row>
     <row r="55" spans="2:3" ht="15">
       <c r="B55" s="38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C55" s="38" t="s">
         <v>320</v>
@@ -8108,107 +8129,107 @@
     </row>
     <row r="57" spans="2:3" ht="15">
       <c r="B57" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="C57" s="38" t="s">
         <v>400</v>
-      </c>
-      <c r="C57" s="38" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="15">
       <c r="B58" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="C58" s="38" t="s">
         <v>403</v>
-      </c>
-      <c r="C58" s="38" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="15">
       <c r="B60" s="38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="15">
       <c r="B61" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="C61" s="38" t="s">
         <v>383</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="15">
       <c r="B63" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="15">
       <c r="B64" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="C64" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="C64" s="38" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" ht="15">
+    </row>
+    <row r="65" spans="2:3" ht="30">
       <c r="B65" s="38" t="s">
-        <v>361</v>
+        <v>468</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="18" customHeight="1"/>
     <row r="67" spans="2:3" ht="15">
       <c r="B67" s="38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="15">
       <c r="B68" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="C68" s="38" t="s">
         <v>425</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="15">
       <c r="B69" s="38" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="15">
       <c r="B70" s="38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="15">
       <c r="B71" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="15">
       <c r="B72" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="C72" s="38" t="s">
         <v>409</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="15">
@@ -8221,39 +8242,39 @@
     </row>
     <row r="75" spans="2:3" ht="59.25">
       <c r="B75" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="C75" s="38" t="s">
         <v>436</v>
-      </c>
-      <c r="C75" s="38" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="30">
       <c r="B76" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="44.25">
       <c r="B77" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="29.25">
       <c r="B78" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C78" s="38" t="s">
         <v>432</v>
-      </c>
-      <c r="C78" s="38" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="15">
       <c r="B80" s="38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C80" s="38" t="s">
         <v>336</v>
@@ -8261,7 +8282,7 @@
     </row>
     <row r="81" spans="2:3" ht="15">
       <c r="B81" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C81" s="38" t="s">
         <v>334</v>
@@ -8269,7 +8290,7 @@
     </row>
     <row r="82" spans="2:3" ht="28.5" customHeight="1">
       <c r="B82" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C82" s="38" t="s">
         <v>335</v>
@@ -8285,50 +8306,50 @@
     </row>
     <row r="84" spans="2:3" ht="15">
       <c r="B84" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="C84" s="38" t="s">
         <v>440</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="15">
       <c r="B85" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="C85" s="38" t="s">
         <v>376</v>
-      </c>
-      <c r="C85" s="38" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15">
       <c r="B87" s="35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="15">
       <c r="B88" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C88" s="38" t="s">
         <v>388</v>
-      </c>
-      <c r="C88" s="38" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="15">
       <c r="B89" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="C89" s="38" t="s">
         <v>444</v>
-      </c>
-      <c r="C89" s="38" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="15">
       <c r="B90" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="C90" s="38" t="s">
         <v>385</v>
-      </c>
-      <c r="C90" s="38" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="15">
@@ -8341,18 +8362,18 @@
     </row>
     <row r="92" spans="2:3" ht="15">
       <c r="B92" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="C92" s="38" t="s">
         <v>411</v>
-      </c>
-      <c r="C92" s="38" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="15">
       <c r="B93" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="C93" s="38" t="s">
         <v>405</v>
-      </c>
-      <c r="C93" s="38" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="15">
@@ -8365,26 +8386,26 @@
     </row>
     <row r="95" spans="2:3" ht="15">
       <c r="B95" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="C95" s="38" t="s">
         <v>458</v>
-      </c>
-      <c r="C95" s="38" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="28.5">
       <c r="B97" s="38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="114">
       <c r="B98" s="38" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/js.xlsx
+++ b/js.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="473">
   <si>
     <t>Массивы</t>
   </si>
@@ -6691,6 +6691,18 @@
       </rPr>
       <t>push -u origin master</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">git reflog </t>
+  </si>
+  <si>
+    <t>можно посмотреть последний коммит до отката в определенный хеш</t>
+  </si>
+  <si>
+    <t>для поика Багов</t>
+  </si>
+  <si>
+    <t>bisect</t>
   </si>
 </sst>
 </file>
@@ -7753,10 +7765,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C98"/>
+  <dimension ref="B2:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8406,6 +8418,22 @@
       </c>
       <c r="C98" s="38" t="s">
         <v>462</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="C100" s="38" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="C101" s="38" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/js.xlsx
+++ b/js.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="477">
   <si>
     <t>Массивы</t>
   </si>
@@ -4143,22 +4143,6 @@
     <t>удалить файл из индекса, оставив его при этом в рабочем каталоге.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">удаляет файл из вашего рабочего каталога, так что вы в следующий раз не увидите его как “неотслеживаемый”., </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>удаление файла попадёт в индекс</t>
-    </r>
-  </si>
-  <si>
     <t>Эта команда удаляет все файлы, чьи имена заканчиваются на ~</t>
   </si>
   <si>
@@ -4269,6 +4253,29 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>touch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> text.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">git </t>
     </r>
     <r>
@@ -4280,40 +4287,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>clone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> git://github.com/schacon/grit.git</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>touch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> text.txt</t>
+      <t>init</t>
     </r>
   </si>
   <si>
@@ -4329,8 +4303,47 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>init</t>
-    </r>
+      <t>commit -a -m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"сам ком-ий"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  text.txt</t>
+    </r>
+  </si>
+  <si>
+    <t>добавить(индексировать)  файл в GIT репозиторий, проиндексировать изменения</t>
   </si>
   <si>
     <r>
@@ -4345,17 +4358,149 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>commit -a -m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"сам ком-ий"</t>
+      <t>commit -a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>commit -v</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>log --pretty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=oneline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>diff --cached</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  hello.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>checkout master</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>hist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> master --all</t>
     </r>
   </si>
   <si>
@@ -4371,21 +4516,18 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> add</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  text.txt</t>
-    </r>
-  </si>
-  <si>
-    <t>добавить(индексировать)  файл в GIT репозиторий, проиндексировать изменения</t>
+      <t xml:space="preserve"> remote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> -v</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4400,7 +4542,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>commit -a</t>
+      <t>hist</t>
     </r>
   </si>
   <si>
@@ -4416,7 +4558,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>commit -v</t>
+      <t>log --all --pretty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=format:"%h %cd %s (%an)" --since='7 days ago'</t>
     </r>
   </si>
   <si>
@@ -4432,7 +4584,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>status</t>
+      <t>remote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> set-url origin https://</t>
     </r>
   </si>
   <si>
@@ -4448,17 +4610,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>log --pretty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>=oneline</t>
+      <t>rm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> hello.html</t>
     </r>
   </si>
   <si>
@@ -4474,7 +4636,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>diff --cached</t>
+      <t>rm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> \*~</t>
     </r>
   </si>
   <si>
@@ -4490,6 +4662,909 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
+      <t>mv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> file_from file_to</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>diff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>revert HEAD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>reset --hard v1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>hist --all</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">показывает </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>всю историю (с удалившимися комитами)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>tag -d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> oops</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">удалит удаленный комит с тегом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>oops</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">проверьте </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">содержимое </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>файла hello.html.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">установить </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>новый УРЛ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> для ОРИГН</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Получите хэши</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> предыдущих версий</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> изменим предыдущий коммит</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>mv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> hello.html lib</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>перенесем страницу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в каталог lib.сразу же проиндексированы и готовы к коммиту</t>
+    </r>
+  </si>
+  <si>
+    <t>ls -C .git/objects/</t>
+  </si>
+  <si>
+    <t>Углубляемся в базу данных объектов</t>
+  </si>
+  <si>
+    <t>Это файл конфигурации, создающийся для каждого конкретного проекта. Записи в этом файле будут перезаписывать записи в файле .gitconfig вашего главного каталога, по крайней мере в рамках этого проекта.</t>
+  </si>
+  <si>
+    <t>ls .git/refs</t>
+  </si>
+  <si>
+    <t>Ветки и теги</t>
+  </si>
+  <si>
+    <t>cat .git/HEAD</t>
+  </si>
+  <si>
+    <t>содержит ссылку на текущую ветку</t>
+  </si>
+  <si>
+    <t>Эта команда должна показать последний коммит в репозиторий. SHA1 хэш в вашей системе, вероятно, отличается от моего, но вы увидите что-то наподобие этого.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вывод последнего коммита(можете вводить команды </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>git type &lt;hash&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>git dump &lt;hash&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> вместо длинных команд )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> hist --max-count=1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> вывести дерево каталогов , хеш из tree при git dump &lt;hash&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вывод каталога X , хеш из X при git dump &lt;hash&gt; </t>
+  </si>
+  <si>
+    <t>Вывод файла hello.html</t>
+  </si>
+  <si>
+    <t>Создайть ветку,  git checkout -b &lt;имяветки&gt; является шорткатом для git branch &lt;имяветки&gt; за которым идет git checkout &lt;имяветки&gt;.</t>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> checkout -b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;имяветки&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> git branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;имяветки&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> master</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Слияние(веток)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> переносит изменения из двух веток в одну(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>текущую</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">удаляет коммиты </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">сверху и до v1(он становиться </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>HEAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">-ом) перед этим нужно задать тег текущему комиту, чтоб потом его можно было найти, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>можно перейти на номер хеша</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> rebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> master</t>
+    </r>
+  </si>
+  <si>
+    <t>ПЕРЕБАЗИРОВАНИЕ rebase вместо команды merge.</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>посмотреть в какой ты папке</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>remote</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> remote show </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>origin</t>
+    </r>
+  </si>
+  <si>
+    <t>получить более подробную информацию об имени по умолчанию</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>«имя по умолчанию» на первичном централизованном репозитории (если таковой имеется).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>branch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">посмотрим на ветки, доступные в нашем клонированном репозитории.выводит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>только список локальных веток</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> по умолчанию.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>branch -a</t>
+    </r>
+  </si>
+  <si>
+    <t>Для того, чтобы увидеть все ветки</t>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> fetch url</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> извлекает все наработки, отправленные (push) на этот сервер после того, как вы склонировали его (или получили изменения с помощью fetch). fetch забирает данные в ваш локальный репозиторий, но не сливает их с какими-либо вашими наработками и не модифицирует то, над чем вы работаете в данный момент</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>fetch origin</t>
+    </r>
+  </si>
+  <si>
+    <t>получить побольше информации об одном из удалённых репозиториев</t>
+  </si>
+  <si>
+    <t>хотите извлечь (fetch) всю информацию, которая есть в репозитории, получения данных из удалённых проектов(изменения)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">эквивалентна комбинации </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>git fetch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>git merge</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>clone --bare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> hello hello.git</t>
+    </r>
+  </si>
+  <si>
+    <t>Создайте чистый репозиторий</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>remote add shared</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ../hello.git</t>
+    </r>
+  </si>
+  <si>
+    <t>Добавить чистый репозиторий в качестве удаленного репозитория к нашему оригинальному репозиторию</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>push shared</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> master</t>
+    </r>
+  </si>
+  <si>
+    <t>отправить изменения в общий репозиторий</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t>checkout</t>
     </r>
     <r>
@@ -4500,7 +5575,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">  hello.html</t>
+      <t xml:space="preserve">  &lt;hash&gt; | [&lt;имя ветки&gt;] | [&lt;имя тега&gt;]</t>
     </r>
   </si>
   <si>
@@ -4516,8 +5591,125 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>checkout master</t>
-    </r>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(tr журнал)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вернуться к последней версии в ветке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">master(«master» </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">— имя ветки по умолчанию. )Переключая имена веток, вы попадаете на последнюю версию выбранной ветки.Используйте команду </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">checkout hello.html </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>для переключения в версию файла hello.html в репозитории.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> revert HEAD --no-edit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Команду </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>--no-edit</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> можно проигнорировать.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Она была необходима для генерации выходных данных без открытия редактора.</t>
+    </r>
+  </si>
+  <si>
+    <t>ESC :wq</t>
+  </si>
+  <si>
+    <t>выйти из редактора</t>
   </si>
   <si>
     <r>
@@ -4532,43 +5724,46 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>hist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> master --all</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>git</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> remote</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> -v</t>
+      <t>reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> [HEAD hello.html] | [ &lt;hash&gt;]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> --hard </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Параметр --hard указывает, что рабочий </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>каталог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> должен быть обновлен в соответствии с новым head ветки.</t>
     </r>
   </si>
   <si>
@@ -4584,8 +5779,21 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>hist</t>
-    </r>
+      <t xml:space="preserve">tag -d </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;tag&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Удаление тега </t>
   </si>
   <si>
     <r>
@@ -4600,1521 +5808,6 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>log --all --pretty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>=format:"%h %cd %s (%an)" --since='7 days ago'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>remote</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> set-url origin https://</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>rm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> --cached readme.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>rm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> hello.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>rm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> \*~</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>mv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> file_from file_to</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>diff</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>revert HEAD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>log -p</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> -p,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> который показывает дельту (разницу/diff), привнесенную каждым коммитом. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">откатывает назад, если файл был изменен, но не проиндексирован </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ОТМЕНА ЛОКАЛЬНЫХ ИЗМЕНЕНИЙ (ДО ИНДЕКСАЦИИ)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>отменили самый последний произведенный коммит</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> и (отменили индексацию)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, мы смогли использовать HEAD в качестве аргумента для отмены. Мы можем отменить любой произвольной коммит в истории, указав его хэш-значение. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>изменяет рабочий каталог.ОТМЕНА КОММИТОВ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>reset --hard v1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>hist --all</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">показывает </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>всю историю (с удалившимися комитами)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>tag -d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> oops</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">удалит удаленный комит с тегом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>oops</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">проверьте </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">содержимое </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>файла hello.html.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">установить </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>новый УРЛ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> для ОРИГН</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Получите хэши</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> предыдущих версий</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>commit --amend</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> -m "Add an author/email comment"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> изменим предыдущий коммит</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>mv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> hello.html lib</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>перенесем страницу</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> в каталог lib.сразу же проиндексированы и готовы к коммиту</t>
-    </r>
-  </si>
-  <si>
-    <t>ls -C .git/objects/</t>
-  </si>
-  <si>
-    <t>Углубляемся в базу данных объектов</t>
-  </si>
-  <si>
-    <t>Это файл конфигурации, создающийся для каждого конкретного проекта. Записи в этом файле будут перезаписывать записи в файле .gitconfig вашего главного каталога, по крайней мере в рамках этого проекта.</t>
-  </si>
-  <si>
-    <t>ls .git/refs</t>
-  </si>
-  <si>
-    <t>Ветки и теги</t>
-  </si>
-  <si>
-    <t>cat .git/HEAD</t>
-  </si>
-  <si>
-    <t>содержит ссылку на текущую ветку</t>
-  </si>
-  <si>
-    <t>Эта команда должна показать последний коммит в репозиторий. SHA1 хэш в вашей системе, вероятно, отличается от моего, но вы увидите что-то наподобие этого.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Вывод последнего коммита(можете вводить команды </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>git type &lt;hash&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">и </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>git dump &lt;hash&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> вместо длинных команд )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>git</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> hist --max-count=1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> вывести дерево каталогов , хеш из tree при git dump &lt;hash&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вывод каталога X , хеш из X при git dump &lt;hash&gt; </t>
-  </si>
-  <si>
-    <t>Вывод файла hello.html</t>
-  </si>
-  <si>
-    <t>Создайть ветку,  git checkout -b &lt;имяветки&gt; является шорткатом для git branch &lt;имяветки&gt; за которым идет git checkout &lt;имяветки&gt;.</t>
-  </si>
-  <si>
-    <r>
-      <t>git</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> checkout -b </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;имяветки&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> git branch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;имяветки&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>merge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> master</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Слияние(веток)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> переносит изменения из двух веток в одну(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>текущую</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> и </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>master</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">удаляет коммиты </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">сверху и до v1(он становиться </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>HEAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">-ом) перед этим нужно задать тег текущему комиту, чтоб потом его можно было найти, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>можно перейти на номер хеша</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>git</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> rebase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> master</t>
-    </r>
-  </si>
-  <si>
-    <t>ПЕРЕБАЗИРОВАНИЕ rebase вместо команды merge.</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>посмотреть в какой ты папке</t>
-  </si>
-  <si>
-    <t>ls</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>remote</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>git</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> remote show </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>origin</t>
-    </r>
-  </si>
-  <si>
-    <t>получить более подробную информацию об имени по умолчанию</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>«имя по умолчанию» на первичном централизованном репозитории (если таковой имеется).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>branch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">посмотрим на ветки, доступные в нашем клонированном репозитории.выводит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>только список локальных веток</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> по умолчанию.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>branch -a</t>
-    </r>
-  </si>
-  <si>
-    <t>Для того, чтобы увидеть все ветки</t>
-  </si>
-  <si>
-    <r>
-      <t>git</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> fetch url</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> извлекает все наработки, отправленные (push) на этот сервер после того, как вы склонировали его (или получили изменения с помощью fetch). fetch забирает данные в ваш локальный репозиторий, но не сливает их с какими-либо вашими наработками и не модифицирует то, над чем вы работаете в данный момент</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>fetch origin</t>
-    </r>
-  </si>
-  <si>
-    <t>получить побольше информации об одном из удалённых репозиториев</t>
-  </si>
-  <si>
-    <t>хотите извлечь (fetch) всю информацию, которая есть в репозитории, получения данных из удалённых проектов(изменения)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">эквивалентна комбинации </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>git fetch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> и </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>git merge</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>clone --bare</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> hello hello.git</t>
-    </r>
-  </si>
-  <si>
-    <t>Создайте чистый репозиторий</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>remote add shared</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> ../hello.git</t>
-    </r>
-  </si>
-  <si>
-    <t>Добавить чистый репозиторий в качестве удаленного репозитория к нашему оригинальному репозиторию</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>push shared</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> master</t>
-    </r>
-  </si>
-  <si>
-    <t>отправить изменения в общий репозиторий</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>checkout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  &lt;hash&gt; | [&lt;имя ветки&gt;] | [&lt;имя тега&gt;]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(tr журнал)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Вернуться к последней версии в ветке </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">master(«master» </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">— имя ветки по умолчанию. )Переключая имена веток, вы попадаете на последнюю версию выбранной ветки.Используйте команду </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">checkout hello.html </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>для переключения в версию файла hello.html в репозитории.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>git</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> revert HEAD --no-edit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Команду </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>--no-edit</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> можно проигнорировать.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Она была необходима для генерации выходных данных без открытия редактора.</t>
-    </r>
-  </si>
-  <si>
-    <t>ESC :wq</t>
-  </si>
-  <si>
-    <t>выйти из редактора</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>reset</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> [HEAD hello.html] | [ &lt;hash&gt;]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Команда reset </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">сбрасывает буферную зону </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>к HEAD</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(отменяет индексацию)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>. Это очищает буферную зону от изменений, которые мы только что проиндексировали</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(отменяет индексацию).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Команда </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>reset (по умолчанию) не изменяет рабочий каталог.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> ОТМЕНА ПРОИНДЕКСИРОВАННЫХ ИЗМЕНЕНИЙ (ПЕРЕД КОММИТОМ), </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>если перейти git checkout hello.html-изменения вступят в силу</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.Если  &lt;hash&gt;- почистит историю до Хеша</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> --hard </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Параметр --hard указывает, что рабочий </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>каталог</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> должен быть обновлен в соответствии с новым head ветки.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">tag -d </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;tag&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Удаление тега </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t xml:space="preserve">commit -m </t>
     </r>
     <r>
@@ -6126,29 +5819,6 @@
         <charset val="204"/>
       </rPr>
       <t>"blabla"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>переместить файл</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> в Git'е что(file_from), куда(file_to)</t>
     </r>
   </si>
   <si>
@@ -6704,12 +6374,523 @@
   <si>
     <t>bisect</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>rm --cached</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> readme.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>переименовать файл</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в Git'е что(file_from),  на что(file_to)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>clone git:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>//github.com/schacon/grit.git</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>log -p -2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> это </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, который показывает дельту (разницу/diff), привнесенную каждым коммитом. Вы также можете использовать </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, что ограничит вывод до 2-х последних записей</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>log -U1 --word-diff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> получить дельту по словам вместо обычной дельты по строкам, нужно дописать после команды</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> git log -p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> опцию </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>--word-diff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> log --stat</t>
+    </r>
+  </si>
+  <si>
+    <t>получить некоторую краткую статистику по каждому коммиту, выводит под каждым коммитом список изменённых файлов, количество изменённых файлов, а также количество добавленных и удалённых строк в этих файлах.</t>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>commit --amend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-m "Add an author/email comment"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">откатывает назад, если файл был изменен, но не проиндексирован </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ОТМЕНА ЛОКАЛЬНЫХ ИЗМЕНЕНИЙ (ДО ИНДЕКСАЦИИ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>отменили самый последний произведенный коммит</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и (отменили индексацию)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">мы смогли использовать HEAD в качестве аргумента для отмены. Мы можем отменить любой произвольной коммит в истории, указав его хэш-значение. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>изменяет рабочий каталог.ОТМЕНА КОММИТОВ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>удаляет файл</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> из вашего рабочего каталога, так что вы в следующий раз не увидите его как “неотслеживаемый”.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>удаление файла попадёт в индекс</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Команда reset </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">сбрасывает буферную зону </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>к HEAD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(отменяет индексацию)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Это очищает буферную зону от изменений, которые мы только что проиндексировали</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(отменяет индексацию).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Команда </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>reset (по умолчанию) не изменяет рабочий каталог.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ОТМЕНА ПРОИНДЕКСИРОВАННЫХ ИЗМЕНЕНИЙ (ПЕРЕД КОММИТОМ),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>если перейти git checkout hello.html-изменения вступят в силу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.Если  &lt;hash&gt;- почистит историю до Хеша</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6820,6 +7001,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -7765,10 +7953,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C101"/>
+  <dimension ref="B2:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7786,7 +7974,7 @@
     </row>
     <row r="3" spans="2:3" ht="15">
       <c r="B3" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>324</v>
@@ -7802,10 +7990,10 @@
     </row>
     <row r="5" spans="2:3" ht="15">
       <c r="B5" s="35" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15">
@@ -7818,10 +8006,10 @@
     </row>
     <row r="7" spans="2:3" ht="15">
       <c r="B7" s="35" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15">
@@ -7829,143 +8017,143 @@
     </row>
     <row r="9" spans="2:3" ht="15">
       <c r="B9" s="38" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="29.25">
       <c r="B10" s="38" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15">
       <c r="B11" s="38" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15">
       <c r="B12" s="38" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="28.5">
       <c r="B14" s="35" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15">
       <c r="B15" s="35" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15">
       <c r="B16" s="38" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15">
       <c r="B17" s="38" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15">
       <c r="B18" s="38" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15">
       <c r="B19" s="38" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
       <c r="B20" s="38" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15">
       <c r="B21" s="38" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15">
       <c r="B23" s="38" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="30">
       <c r="B24" s="38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>370</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="29.25">
       <c r="B25" s="38" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="44.25">
       <c r="B26" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15">
       <c r="B28" s="38" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="28.5">
       <c r="B29" s="38" t="s">
-        <v>344</v>
+        <v>465</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>328</v>
@@ -7973,7 +8161,7 @@
     </row>
     <row r="31" spans="2:3" ht="30">
       <c r="B31" s="38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>333</v>
@@ -7981,7 +8169,7 @@
     </row>
     <row r="32" spans="2:3" ht="15">
       <c r="B32" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>318</v>
@@ -7989,15 +8177,15 @@
     </row>
     <row r="33" spans="2:3" ht="29.25">
       <c r="B33" s="38" t="s">
-        <v>380</v>
+        <v>472</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30">
       <c r="B34" s="38" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>331</v>
@@ -8005,7 +8193,7 @@
     </row>
     <row r="35" spans="2:3" ht="44.25">
       <c r="B35" s="38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C35" s="38" t="s">
         <v>332</v>
@@ -8013,7 +8201,7 @@
     </row>
     <row r="36" spans="2:3" ht="29.25">
       <c r="B36" s="38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>311</v>
@@ -8021,7 +8209,7 @@
     </row>
     <row r="37" spans="2:3" ht="15">
       <c r="B37" s="38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>310</v>
@@ -8029,7 +8217,7 @@
     </row>
     <row r="39" spans="2:3" ht="15">
       <c r="B39" s="38" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C39" s="38" t="s">
         <v>329</v>
@@ -8037,7 +8225,7 @@
     </row>
     <row r="40" spans="2:3" ht="29.25">
       <c r="B40" s="38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C40" s="38" t="s">
         <v>330</v>
@@ -8045,23 +8233,23 @@
     </row>
     <row r="42" spans="2:3" ht="42.75">
       <c r="B42" s="38" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="28.5">
       <c r="B43" s="38" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15">
       <c r="B44" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>327</v>
@@ -8069,39 +8257,39 @@
     </row>
     <row r="46" spans="2:3" ht="15">
       <c r="B46" s="38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="15">
       <c r="B47" s="38" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="15">
       <c r="B48" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="28.5">
       <c r="B49" s="38" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="15">
       <c r="B51" s="38" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C51" s="38" t="s">
         <v>317</v>
@@ -8109,200 +8297,200 @@
     </row>
     <row r="52" spans="2:3" ht="29.25">
       <c r="B52" s="38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C52" s="38" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="15">
+    <row r="53" spans="2:3" ht="29.25">
       <c r="B53" s="38" t="s">
-        <v>368</v>
+        <v>466</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="15">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="30">
       <c r="B54" s="38" t="s">
-        <v>353</v>
+        <v>468</v>
       </c>
       <c r="C54" s="38" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="28.5">
+      <c r="B55" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="15">
+      <c r="B56" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="C56" s="38" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="15">
-      <c r="B55" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="15">
       <c r="B57" s="38" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" ht="15">
-      <c r="B58" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="C58" s="38" t="s">
-        <v>403</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="15">
+      <c r="B59" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="15">
       <c r="B60" s="38" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="15">
-      <c r="B61" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>383</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="15">
+      <c r="B62" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="15">
       <c r="B63" s="38" t="s">
-        <v>449</v>
+        <v>374</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="15">
-      <c r="B64" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" ht="30">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="15">
       <c r="B65" s="38" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" ht="18" customHeight="1"/>
-    <row r="67" spans="2:3" ht="15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="15">
+      <c r="B66" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="30">
       <c r="B67" s="38" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" ht="15">
-      <c r="B68" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="18" customHeight="1"/>
     <row r="69" spans="2:3" ht="15">
       <c r="B69" s="38" t="s">
-        <v>465</v>
+        <v>399</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="15">
       <c r="B70" s="38" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="15">
       <c r="B71" s="38" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="15">
       <c r="B72" s="38" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="15">
       <c r="B73" s="38" t="s">
-        <v>358</v>
+        <v>438</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" ht="59.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="15">
+      <c r="B74" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="15">
       <c r="B75" s="38" t="s">
-        <v>435</v>
+        <v>356</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" ht="30">
-      <c r="B76" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="C76" s="38" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" ht="44.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="59.25">
       <c r="B77" s="38" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" ht="29.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="30">
       <c r="B78" s="38" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" ht="15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="44.25">
+      <c r="B79" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="29.25">
       <c r="B80" s="38" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="15">
-      <c r="B81" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="C81" s="38" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" ht="28.5" customHeight="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="15">
       <c r="B82" s="38" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C82" s="38" t="s">
         <v>335</v>
@@ -8310,130 +8498,146 @@
     </row>
     <row r="83" spans="2:3" ht="15">
       <c r="B83" s="38" t="s">
-        <v>352</v>
+        <v>463</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" ht="15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="28.5" customHeight="1">
       <c r="B84" s="38" t="s">
-        <v>439</v>
+        <v>360</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="15">
       <c r="B85" s="38" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>376</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="15">
+      <c r="B86" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15">
-      <c r="B87" s="35" t="s">
-        <v>406</v>
+      <c r="B87" s="38" t="s">
+        <v>368</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" ht="15">
-      <c r="B88" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="C88" s="38" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="15">
       <c r="B89" s="35" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="15">
       <c r="B90" s="35" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="15">
       <c r="B91" s="35" t="s">
-        <v>314</v>
+        <v>433</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>315</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="15">
       <c r="B92" s="35" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="15">
       <c r="B93" s="35" t="s">
-        <v>404</v>
+        <v>314</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>405</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="15">
-      <c r="B94" s="38" t="s">
-        <v>345</v>
+      <c r="B94" s="35" t="s">
+        <v>402</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>316</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15">
       <c r="B95" s="35" t="s">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" ht="28.5">
-      <c r="B97" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="15">
+      <c r="B96" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="15">
+      <c r="B97" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="C97" s="38" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="28.5">
+      <c r="B99" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="C99" s="38" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="114">
+      <c r="B100" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="C100" s="38" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="C97" s="38" t="s">
+      <c r="C102" s="38" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="114">
-      <c r="B98" s="38" t="s">
+    <row r="103" spans="2:3">
+      <c r="B103" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="C103" s="38" t="s">
         <v>461</v>
-      </c>
-      <c r="C98" s="38" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="B100" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="C100" s="38" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="C101" s="38" t="s">
-        <v>471</v>
       </c>
     </row>
   </sheetData>
